--- a/4.- Plan de Pruebas/Demo 3 Resultados.xlsx
+++ b/4.- Plan de Pruebas/Demo 3 Resultados.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
   <si>
     <t>Hacer / No hacer</t>
   </si>
@@ -116,6 +116,12 @@
   </si>
   <si>
     <t xml:space="preserve">Al añadir la lista de la compra quitaría los nombres "hipercor" "dia" </t>
+  </si>
+  <si>
+    <t>DE MOMENTO NO SE HA LLEGADO A UN ACUERDO SOBRE ESTO</t>
+  </si>
+  <si>
+    <t>Si da tiempo…</t>
   </si>
 </sst>
 </file>
@@ -203,7 +209,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -260,6 +266,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -558,7 +567,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -590,6 +599,9 @@
       <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
+      <c r="C2" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
@@ -598,6 +610,9 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
+      <c r="D3" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
@@ -629,6 +644,9 @@
       <c r="B6" s="7" t="s">
         <v>30</v>
       </c>
+      <c r="D6" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
@@ -681,6 +699,9 @@
       <c r="B11" s="6" t="s">
         <v>4</v>
       </c>
+      <c r="C11" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="D11" s="1" t="s">
         <v>18</v>
       </c>
@@ -689,9 +710,10 @@
       <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>30</v>
-      </c>
+      <c r="B12" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="10"/>
       <c r="D12" s="1" t="s">
         <v>20</v>
       </c>
